--- a/articles.xlsx
+++ b/articles.xlsx
@@ -468,54 +468,54 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>India-Pakistan ceasefire raises hopes that the worst fighting in decades is over. Here’s what to know</t>
+          <t>Trendlines: NBA playoff ticket prices are out of control</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>May 11, 2025</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/2025/05/10/asia/india-pakistan-ceasefire-explainer-latam-intl</t>
+          <t>https://www.cnn.com/2025/05/10/sport/trendlines-nba-playoff-ticket-prices-spt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A ceasefire agreed between India and Pakistan appears to be holding, with both sides stressing their commitment to the surprise truce which halted the worst fighting in decades between the nuclear-armed neighbors.</t>
+          <t>Welcome to Trendlines, your weekly installment of what’s trending up and what’s trending down in sports.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Politics</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Video Ad Feedback CNN correspondents explain what we know about the India and Pakistan ceasefire 05:52 - Source: CNN CNN correspondents explain what we know about the India and Pakistan ceasefire 05:52India’s Ministry of Information said the agreement was worked out “directly between the two countries,” downplaying US involvement and contradicting Trump’s claim. “India has never accepted mediation in any dispute, be it India-Pakistan or India-China, or any other,” said Dr. Aparna Pande, research fellow for India and South Asia at the Hudson Institute, a think-tank in Washington, DC. Trump administration officials told CNN that, after receiving alarming intelligence on Friday about the extent to which the conflict could escalate, the State Department felt it had no choice but to play a greater role in talks between the two sidesWill the ceasefire hold?While initially appearing fragile, both sides appear to be upholding the terms of the ceasefire into Sunday.</t>
+          <t>Nathaniel S. Butler/NBAE via Getty ImagesTrending up — Three point attempts: Up 28 since 1993-94 seasonI will admit that I’m not the most ardent NBA fan, hence my references to mid-90s basketball. Trending up — Ticket prices for Knicks-Celtics Game 3: Up $200 in the last weekThe cheapest ticket right now on Vivid Seats is about $600. Did somebody say brick?Trending up — Google searches for “Roundball Rock”: Up 614% from last monthThe Celtics may be missing, but John Tesh’s basketball anthem does not.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Rising waters and overtourism are killing Venice. Now the fight is on to save its soul</t>
+          <t>Shedeur Sanders aiming to ‘prove himself right’ instead of other ‘people wrong’ as he begins NFL career</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>May 11, 2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/travel/battle-for-the-soul-of-venice</t>
+          <t>https://www.cnn.com/2025/05/11/sport/shedeur-sanders-rookies-nfl-practice-spt</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Venice isn’t just dealing with too many visitors. It also has major issues from depopulation, and rising sea levels. But some locals won’t stop trying to change things for the better as they battle to save Venice from going under.</t>
+          <t>Cleveland Browns quarterback Shedeur Sanders said his “job here isn’t to prove people wrong” but to “prove myself right” as he spoke to the media for the first time since his dramatic slide and fifth round selection during the NFL Draft.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,14 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>“We have nothing against private property, but if you rent 20 houses only to tourists, then you become a problem for your community,” says Dal Carlo, who is one of the tens of thousands of Venetians who have left the city for the mainland, a 10-minute train ride (plus ferry ride to the city center) away. But while the city authorities’ actions — like the 5 euro (roughly $5) daytripper fee trialed in 2024 and set to be repeated in 2025, and the Smart Control Room, which monitors the movements of visitors to the city — have met a mixed response, plenty of other Venetians are taking their own steps to preserve life in the city as they know it. Editor’s Note: A new episode of “The Whole Story: “Saving Venice,” a city threatened by rising sea levels and the millions of tourists desperate to visit while they still can, airs Sunday, May 11th at 8pm ET/PT on CNN.</t>
+          <t>CNN —Cleveland Browns quarterback Shedeur Sanders said his “job here isn’t to prove people wrong” but to “prove myself right” as he spoke to the media for the first time since his dramatic slide and fifth round selection during the NFL Draft. Sanders is the son of Colorado Buffaloes head coach and Pro Football Hall of Famer Deion Sanders. Nick Cammett/Getty ImagesThe top two picks in the 2025 NFL Draft have also been refining their skills in their rookie minicamps.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Loops in the sky: See the chaos caused by Newark’s April radar shutdown</t>
+          <t>Trump to accept luxury jet from Qatar to use as Air Force One</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -542,12 +542,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/2025/05/11/us/newark-airport-outage-dg</t>
+          <t>https://www.cnn.com/2025/05/11/politics/trump-luxury-jet-qatar-air-force-one</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>On April 28, Newark approach lost radar and comms with at least 16 commercial jets. Many circled in oval loops before landing elsewhere. A CNN data analysis reveals the ripple effects from the outage.</t>
+          <t>The Trump administration is set to accept a luxury plane from the Qatari royal family which will be retrofitted and used as Air Force One during his second term, two people familiar with the agreement told CNN.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,14 +557,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CNN —At least 16 commercial planes were likely being tracked by Newark approach controllers when the airport’s communication and radar went down on April 28, including at least eight that were diverted to nearby airports, according to a CNN analysis of data from the tracking site Flightradar24. The incident is one of at least three communications failures at Newark since the Federal Aviation Administration moved controllers overseeing flights at the airport from a Long Island facility to a new location in Philadelphia, including another outage on May 9. See some of those holding patterns in these maps:Flight operations at Newark — one of the nation’s busiest airports — appeared to be slowly returning to normal throughout this past week, but controllers experienced another blackout in the early morning hours on May 9.</t>
+          <t>CNN —The Trump administration is set to accept a luxury plane from the Qatari royal family which will be retrofitted and used as Air Force One during his second term, two people familiar with the agreement told CNN. Cheung said earlier this year that Trump’s tour of the plane, “highlights the project’s failure to deliver a new Air Force One on time as promised, as they are already 5 years late.” Trump and aides toured the plane earlier this year at the airport in Palm Beach and it is expected to be in use within two years, one person told CNN.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>‘Never again war!’ Pope Leo calls for peace in Ukraine and Gaza in first Vatican address since his election</t>
+          <t>Top US officials emerge from China trade talks touting ‘substantial progress’ and ‘deal’</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -574,29 +574,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/2025/05/11/europe/pope-leo-vatican-balcony-prayer-intl</t>
+          <t>https://www.cnn.com/2025/05/11/politics/top-us-officials-emerge-from-china-trade-talks-touting-substantial-progress-and-agreement</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pope Leo XIV stepped out onto the balcony of St. Peter’s Basilica to thunderous applause and an electric atmosphere, to deliver his first Sunday blessing and an address calling for peace in Ukraine and Gaza.</t>
+          <t>Top US officials involved in high-level trade negotiations with China emerged from two days of talks touting “substantial progress” and appearing to confirm that a deal between the two countries had been reached, which could have massive implications for the global economy.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Politics</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Pope Leo is indicated on Saturday that his papacy will follow closely in the footsteps of the late Pope Francis, setting out a vision for a church led be a missionary focus, courageous dialogue with the contemporary world and “loving care for the least and the rejected.”Leo is expected to lean in a more progressive way on social issues like migration and poverty but fall more in line with moderates on moral issues of Catholic doctrine. The square was booming with music ahead of Leo’s address, as hundreds of musicians from around the world marched into St. Peter’s Square for a Jubilee of Bands, playing classic songs from their home countries and even pop songs like Village People’s 1978 hit “YMCA.” Andreas Solaro/AFP/Getty ImagesPope Leo XIV led Mass in the Vatican grottoes on Sunday morning before singing the Regina Caeli from the balcony of St. Peter's Basilica.</t>
+          <t>“I’m happy to report that we’ve made substantial progress between the United States and China in the very important trade talks,” Treasury Secretary Scott Bessent said in a brief statement Sunday in Geneva, Switzerland, where the talks were held, calling the negotiations “productive.”US Trade Representative Jamieson Greer indicated that an agreement had been reached Sunday, after President Donald Trump imposed sweeping 145% tariffs on most Chinese goods last month. CNN —Top US officials involved in high-level trade negotiations with China emerged from two days of talks touting “substantial progress” and appearing to confirm that a deal between the two countries had been reached, which could have massive implications for the global economy. Bessent had suggested earlier this week that his goal was de-escalation of tensions as the US and China have been at a virtual stalemate since Trump imposed his tariff policy.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Putin must agree ceasefire before holding ‘direct’ talks with Ukraine, Kyiv’s allies say</t>
+          <t>Cassie Ventura’s civil suit against Sean ‘Diddy’ Combs preceded his criminal case. Here’s how her life has changed since</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -606,12 +606,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/2025/05/10/europe/putin-russia-ukraine-direct-talks-intl-hnk</t>
+          <t>https://www.cnn.com/2025/05/11/entertainment/cassie-ventura-sean-diddy-combs</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ukraine’s allies have rejected Vladimir Putin’s offer to hold direct talks with Ukrainian officials, saying the Russian president must first accept the US-backed ceasefire proposal.</t>
+          <t>Cassie Ventura would not have been blamed had she decided to disappear from public life and social media.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -621,61 +621,61 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Later Sunday, the White House said Secretary of State Marco Rubio will visit Turkey from Wednesday to Friday, to attend an informal meeting of NATO foreign ministers and discuss “ending the Russia-Ukraine war,” meaning he will be in the country on the day of Putin’s proposed peace talks. Around the same time as Putin’s late-night speech, a three-day pause in fighting ordered by Russia’s leader came to an end, with Ukraine reporting more than 100 drone attacks overnight. For months, while Russia pounded Ukrainian cities with airstrikes and its offensive ground through the east of the country, Ukraine and its allies have tried to convince the Trump administration that Putin acts in bad faith, and have said Russia’s agreeing to a ceasefire can function as a test of whether it is serious about achieving the peace the US president has long demanded.</t>
+          <t>For her supporters, the footage is validation for Ventura, who had been painted by some Combs fans as a disgruntled ex.Ventura has said nothing publicly about either her suit or the fallout, beyond thanking her supporters at the time the video was first published by CNN last year. Ventura released other singles, including “Official Girl” featuring rapper Lil Wayne in 2008, and “Must Be Love,” featuring Combs performing under one of his professional monikers, Puff Daddy, in 2009. Angela Weiss/AFP/Getty ImagesIn her 2023 suit, Ventura said she still suffers from “immense emotional distress” and at one point she checked into an inpatient rehabilitation center after having suicidal thoughts she linked to abuse.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sean ‘Diddy’ Combs timeline: The key events and allegations against the hip-hop mogul now on trial</t>
+          <t>Loops in the sky: See the chaos caused by Newark’s April radar shutdown</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>May 11, 2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/2025/05/10/entertainment/sean-diddy-combs-timeline-trial</t>
+          <t>https://www.cnn.com/2025/05/11/us/newark-airport-outage-dg</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>The criminal case against Sean “Diddy” Combs was sparked after a startling 2023 civil lawsuit from his former girlfriend in which she alleged years of abuse and violence.</t>
+          <t>On April 28, Newark approach lost radar and comms with at least 16 commercial jets. Many circled in oval loops before landing elsewhere. A CNN data analysis reveals the ripple effects from the outage.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Politics</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Combs’ attorney, Brafman, said the settlement was “in no way an admission of wrongdoing.”November 23, 2023: Two more women, Joi Dickerson-Neal and Liza Gardner, accused Combs of sexual assault in lawsuits filed in New York Supreme Court on the eve of the expiration of the state’s Adult Survivors Act. From mogul to defendantSeptember 15, 2023: Diddy released “The Love Album: Off the Grid,” his fifth studio album, featuring appearances by a who’s who of the music industry, including Justin Bieber, the Weeknd and Mary J. Blige. Ventura filed the suit days ahead of the November 23 expiration of the New York’s Adult Survivor Act, which created a one-year window for adult survivors of sexual abuse to sue their abusers, regardless of the statute of limitations.</t>
+          <t>CNN —At least 16 commercial planes were likely being tracked by Newark approach controllers when the airport’s communication and radar went down on April 28, including at least eight that were diverted to nearby airports, according to a CNN analysis of data from the tracking site Flightradar24. The incident is one of at least three communications failures at Newark since the Federal Aviation Administration moved controllers overseeing flights at the airport from a Long Island facility to a new location in Philadelphia, including another outage on May 9. See some of those holding patterns in these maps:Flight operations at Newark — one of the nation’s busiest airports — appeared to be slowly returning to normal throughout this past week, but controllers experienced another blackout in the early morning hours on May 9.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Trump is visiting three of the world’s richest nations. Here’s what’s on their wish list</t>
+          <t>Tariffs could take the bloom off Mother’s Day flowers</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>May 11, 2025</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/2025/05/11/middleeast/trump-visit-gulf-arab-states-saudi-uae-qatar-intl</t>
+          <t>https://www.cnn.com/2025/05/10/business/mothers-day-flowers-tariffs</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Three energy-rich Gulf Arab nations are racing to turn their influence over Donald Trump into tangible gains with the president set to visit next week.</t>
+          <t>Mother’s Day is a busy season for florists like Allison Krivachek of Hydrangea Bloom in Iowa, but this year, rising prices due to Donald Trump tariffs are forcing her to raise costs and see fewer orders.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -685,29 +685,29 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Given Trump’s transactional approach to foreign policy, the three states have much to offer“In Trump’s book, the Gulf states tick all the right boxes,” Hasan Alhasan, senior fellow for Middle East policy at the International Institute for Strategic Studies in Bahrain, told CNN. Sealing a US-Saudi security pact“Security, security and security” is what Saudi Arabia and other Gulf states seek most from Trump’s visit, said Ali Shihabi, an author and commentator on politics and economics of Saudi Arabia. A US military transport aircraft, which was set to carry humanitarian aid parcels for the Gaza Strip, is pictured on the tarmac at the Al-Udeid air base southwest of Doha on March 21, 2024.</t>
+          <t>America imported approximately $2.26 billion worth of fresh-cut flowers in 2024, with Colombia accounting for 60% of the market and Ecuador following with 25%, according to US Census Bureau data. Eighty percent of all cut flowers sold in the United States are imported from Colombia, Canada or Ecuador, according to the US Department of Agriculture. Debra Prinzing, founder of the Slow Flowers Society and a leading advocate for American-grown flowers, said the US floral industry was built to rely on imports.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Democrats involved in tense encounter at ICE facility say Trump administration is trying to intimidate them</t>
+          <t>Pope Leo signals he will closely follow Francis and says AI represents challenge for humanity</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>May 11, 2025</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/2025/05/11/politics/ice-facility-democrats-arrest-newark-mayor-baraka</t>
+          <t>https://www.cnn.com/2025/05/10/europe/pope-leo-prevost-cardinals-artificial-intelligence-intl</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A DHS spokesperson told CNN the lawmakers could be arrested, saying the department has “body camera footage of some of these members of Congress assaulting our ICE enforcement officers, including body slamming a female ICE officer.” The incident culminated in the detention of Newark Mayor Ras Baraka.</t>
+          <t>Pope Leo XIV indicated on Saturday that his papacy will follow closely in the footsteps of the late Pope Francis, telling church cardinals that they should take up that “precious legacy” and identifying artificial intelligence as a main challenge for working people and “human dignity.”</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -717,46 +717,46 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rep. Bonnie Watson Coleman, D-N.J., speaks with an officer demanding she be let into the ICE Detention office after the arrest of Newark Mayor Ras Baraka, Friday, May 9, 2025, in Newark, N.J. Angelina Katsanis/APBut DHS spokesperson Tricia McLaughlin told CNN on Saturday the lawmakers could be arrested, saying the department has “body camera footage of some of these members of Congress assaulting our ICE enforcement officers, including body slamming a female ICE officer.” Rep. Bonnie Watson Coleman, who joined CNN’s “State of the Union” Sunday alongside fellow New Jersey Democrats, Reps. LaMonica McIver and Robert Menendez Jr., said the lawmakers haven’t heard from DHS after the tense encounter on Friday that culminated in the detention of Newark Mayor Ras Baraka. CNN —Three Democratic lawmakers who were involved in a tense encounter outside an Immigrations and Customs Enforcement facility in Newark, New Jersey, are accusing the administration of “intimidation” after a Department of Homeland Security official suggested they could be arrested.</t>
+          <t>“In our own day, the church offers to everyone the treasury of her social teaching in response to another industrial revolution and to developments in the field of artificial intelligence that pose new challenges for the defense of human dignity, justice and labor,” the new American pontiff said Saturday, speaking in fluent Italian. “It has been clearly seen in the example of so many of my predecessors, and most recently by Pope Francis himself, with his example of complete dedication to service and to sober simplicity of life, his abandonment to God throughout his ministry and his serene trust at the moment of his return to the Father’s house,” Pope Leo told the gathering. “Your presence reminds me that the Lord, who has entrusted me with this mission, will not leave me alone in bearing its responsibility,” he said, also specifically thanking Dean of the College of Cardinals Giovanni Battista Re and the Camerlengo Cardinal Kevin Joseph Farrell, who was responsible for shepherding the church through the papal transition.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Trendlines: NBA playoff ticket prices are out of control</t>
+          <t>Trump wants to upend American holidays</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>May 11, 2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/2025/05/10/sport/trendlines-nba-playoff-ticket-prices-spt</t>
+          <t>https://www.cnn.com/2025/05/11/politics/victory-day-army-military-parade-trump</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Welcome to Trendlines, your weekly installment of what’s trending up and what’s trending down in sports.</t>
+          <t>It may be no surprise that President Donald Trump, who did not serve in the active-duty military, would rather celebrate victory than veterans.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Politics</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Nathaniel S. Butler/NBAE via Getty ImagesTrending up — Three point attempts: Up 28 since 1993-94 seasonI will admit that I’m not the most ardent NBA fan, hence my references to mid-90s basketball. Trending up — Ticket prices for Knicks-Celtics Game 3: Up $200 in the last weekThe cheapest ticket right now on Vivid Seats is about $600. Did somebody say brick?Trending up — Google searches for “Roundball Rock”: Up 614% from last monthThe Celtics may be missing, but John Tesh’s basketball anthem does not.</t>
+          <t>It’s quite the evolution for a holiday that used to commemorate armistice when it was first observed by Woodrow Wilson in 1919, a year after the truce that ended the war:“To us in America, the reflections of Armistice Day will be filled with solemn pride in the heroism of those who died in the country’s service and with gratitude for the victory, both because of the thing from which it has freed us and because of the opportunity it has given America to show her sympathy with peace and justice in the councils of the nations.” A few years later, in 1923, just before his death, a frail Wilson would chastise Americans in an Armistice Day radio address for turning toward isolationism and not joining the League of Nations, a sentiment still relevant today as Trump disrupts the post-World War II economic and diplomatic order. Nobody at the White House appears to have put together that the day Trump wants to celebrate Victory in World War II Day, May 8, when Germany surrendered in Europe, was not the end of World War II.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>These pregnant moms eye Supreme Court’s birthright citizenship arguments with fear</t>
+          <t>A unique variety of garlic is in danger of extinction. One woman is trying to keep it alive</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -766,44 +766,44 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/2025/05/11/politics/pregnant-mothers-supreme-courts-birthright-citizenship</t>
+          <t>https://www.cnn.com/2025/05/11/travel/sopa-de-ajo-garlic-spain-cec</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mónica got pregnant last year around the same time President Donald Trump was elected to a second term. And that is when her race against the calendar began.</t>
+          <t>Miriam Hernández, head chef at the restaurant La Casa del Pregonero, is reviving a unique variety of garlic known as ajo fino. In an episode of “Eva Longoria: Searching For Spain,” she showcases its distinct flavor and its place in Spain’s culinary history.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Politics</t>
+          <t>Business</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Those arguments will not be before the Supreme Court this week, but the absence of a question on the merits raises a thorny practical question for the justices: How much should they take the broader constitutional issues into account if they decide to allow Trump to enforce a policy – even temporarily – that flies in the face of a long-standing recognition that a person born in the United States, regardless of their parents’ immigration status, is entitled to citizenship? Allowing the administration to temporarily enforce the order Trump signed on his first day of his second term could set up a dynamic in which a baby born in New Jersey would be able to access a passport or obtain a Social Security number, but a child born into the same circumstances across the Delaware River in Pennsylvania could not. In a landmark 1898 decision, US v. Wong Kim Ark, the Supreme Court affirmed the idea that people born in the United States – in that case, the son of Chinese immigrants – were entitled to US citizenship, with a few narrow exceptions.</t>
+          <t>Makes 4 servingsIngredients3 heads of garlic7 ounces | 200 grams of ham, finely diced7 ounces | 200 grams of bacon, finely diced2 stale baguettes, cut into small cubes2 tablespoons of paprikaSalt and pepperWaterA drizzle of extra virgin olive oilInstructions Editor’s Note: Watch CNN Original Series “Eva Longoria: Searching for Spain,” following the award-winning actress on a gastronomic pilgrimage across the rich tapestry of Spanish cuisine. But Chinchón, a quiet, Spanish town about 40 minutes south of Madrid, is home to a special variety called ajo fino — one that, until recently, was at risk of disappearing.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Pope Leo signals he will closely follow Francis and says AI represents challenge for humanity</t>
+          <t>Democrats involved in tense encounter at ICE facility say Trump administration is trying to intimidate them</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>May 11, 2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/2025/05/10/europe/pope-leo-prevost-cardinals-artificial-intelligence-intl</t>
+          <t>https://www.cnn.com/2025/05/11/politics/ice-facility-democrats-arrest-newark-mayor-baraka</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Pope Leo XIV indicated on Saturday that his papacy will follow closely in the footsteps of the late Pope Francis, telling church cardinals that they should take up that “precious legacy” and identifying artificial intelligence as a main challenge for working people and “human dignity.”</t>
+          <t>A DHS spokesperson told CNN the lawmakers could be arrested, saying the department has “body camera footage of some of these members of Congress assaulting our ICE enforcement officers, including body slamming a female ICE officer.” The incident culminated in the detention of Newark Mayor Ras Baraka.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -813,29 +813,29 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>“In our own day, the church offers to everyone the treasury of her social teaching in response to another industrial revolution and to developments in the field of artificial intelligence that pose new challenges for the defense of human dignity, justice and labor,” the new American pontiff said Saturday, speaking in fluent Italian. “It has been clearly seen in the example of so many of my predecessors, and most recently by Pope Francis himself, with his example of complete dedication to service and to sober simplicity of life, his abandonment to God throughout his ministry and his serene trust at the moment of his return to the Father’s house,” Pope Leo told the gathering. “Your presence reminds me that the Lord, who has entrusted me with this mission, will not leave me alone in bearing its responsibility,” he said, also specifically thanking Dean of the College of Cardinals Giovanni Battista Re and the Camerlengo Cardinal Kevin Joseph Farrell, who was responsible for shepherding the church through the papal transition.</t>
+          <t>Rep. Bonnie Watson Coleman, D-N.J., speaks with an officer demanding she be let into the ICE Detention office after the arrest of Newark Mayor Ras Baraka, Friday, May 9, 2025, in Newark, N.J. Angelina Katsanis/APBut DHS spokesperson Tricia McLaughlin told CNN on Saturday the lawmakers could be arrested, saying the department has “body camera footage of some of these members of Congress assaulting our ICE enforcement officers, including body slamming a female ICE officer.” Rep. Bonnie Watson Coleman, who joined CNN’s “State of the Union” Sunday alongside fellow New Jersey Democrats, Reps. LaMonica McIver and Robert Menendez Jr., said the lawmakers haven’t heard from DHS after the tense encounter on Friday that culminated in the detention of Newark Mayor Ras Baraka. CNN —Three Democratic lawmakers who were involved in a tense encounter outside an Immigrations and Customs Enforcement facility in Newark, New Jersey, are accusing the administration of “intimidation” after a Department of Homeland Security official suggested they could be arrested.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>From a Kennedy Center makeover to crypto sweepstakes: How Trump is rewiring Washington access</t>
+          <t>Trump is visiting three of the world’s richest nations. Here’s what’s on their wish list</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>May 11, 2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/2025/05/10/politics/trump-washington-crypto-access</t>
+          <t>https://www.cnn.com/2025/05/11/middleeast/trump-visit-gulf-arab-states-saudi-uae-qatar-intl</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>There are more ways than ever to rub elbows with President Donald Trump and his inner circle — especially for those willing to pay.</t>
+          <t>Three energy-rich Gulf Arab nations are racing to turn their influence over Donald Trump into tangible gains with the president set to visit next week.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -845,29 +845,29 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Their clients have enjoyed rarefied access to the president: the CEO of Charter Communications, represented by Miller, and NFL Commissioner Roger Goodell, a Ballard client, each appeared alongside Trump during Oval Office eventsAmong the dozens of entities now paying for their services are those in sectors roiled by Trump’s return, including elite colleges like Harvard, Cornell and Northwestern; the Public Broadcasting Service; prestigious law firms Kirkland &amp; Ellis and Simpson Thacher &amp; Bartlett; and businesses affected by tariffs like Mitsubishi. The company’s CEO, Javier Selgas, called the $20 million purchase of Trump coin “an effective way to advocate for fair, balanced, and free trade between Mexico and the US.”Corporate executives are also flocking to the American Growth Partnership, a new pro-Trump business group that is promising unique insight into White House policies and off-the-record discussions with the president’s appointees and advisers. Ballard Partners pulled in more than $13.9 million in the first quarter of 2025, ranking fourth among all lobbying firms, according to Senate disclosures analyzed by the influence tracking organization OpenSecrets, far outpacing its 2024 revenue.</t>
+          <t>Given Trump’s transactional approach to foreign policy, the three states have much to offer“In Trump’s book, the Gulf states tick all the right boxes,” Hasan Alhasan, senior fellow for Middle East policy at the International Institute for Strategic Studies in Bahrain, told CNN. Sealing a US-Saudi security pact“Security, security and security” is what Saudi Arabia and other Gulf states seek most from Trump’s visit, said Ali Shihabi, an author and commentator on politics and economics of Saudi Arabia. A US military transport aircraft, which was set to carry humanitarian aid parcels for the Gaza Strip, is pictured on the tarmac at the Al-Udeid air base southwest of Doha on March 21, 2024.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>What is habeas corpus, the legal procedure Trump is considering suspending?</t>
+          <t>‘Never again war!’ Pope Leo calls for peace in Ukraine and Gaza in first Vatican address since his election</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>May 11, 2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/2025/05/10/politics/habeas-corpus-explained</t>
+          <t>https://www.cnn.com/2025/05/11/europe/pope-leo-vatican-balcony-prayer-intl</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>The future of habeas corpus has been pushed into the spotlight as President Donald Trump has been involved in discussions inside his administration over potentially taking the extreme step of suspending the procedure.</t>
+          <t>Pope Leo XIV stepped out onto the balcony of St. Peter’s Basilica to thunderous applause and an electric atmosphere, to deliver his first Sunday blessing and an address calling for peace in Ukraine and Gaza.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>The Supreme Court issued a murky, unsigned order on April 7 allowing Trump to use the centuries-old Alien Enemies Act to speed up deportations for now while at the same time, the court said migrants subject to deportation under the act were entitled to notice and an opportunity to challenge their removal through federal habeas corpus petitions, marking a partial win for migrants. The other three times include “in eleven South Carolina counties overrun by the Ku Klux Klan during Reconstruction; in two provinces of the Philippines during a 1905 insurrection; and in Hawaii after the bombing of Pearl Harbor,” according to the National Constitution Center. But the Constitution allows habeas corpus to be suspended only when “in Cases of Rebellion or Invasion the public Safety may require it.”“The Constitution makes clear that suspension of habeas corpus is to be reserved for actual rebellion or invasion posing the most dire threats to public safety.</t>
+          <t>Pope Leo is indicated on Saturday that his papacy will follow closely in the footsteps of the late Pope Francis, setting out a vision for a church led be a missionary focus, courageous dialogue with the contemporary world and “loving care for the least and the rejected.”Leo is expected to lean in a more progressive way on social issues like migration and poverty but fall more in line with moderates on moral issues of Catholic doctrine. The square was booming with music ahead of Leo’s address, as hundreds of musicians from around the world marched into St. Peter’s Square for a Jubilee of Bands, playing classic songs from their home countries and even pop songs like Village People’s 1978 hit “YMCA.” Andreas Solaro/AFP/Getty ImagesPope Leo XIV led Mass in the Vatican grottoes on Sunday morning before singing the Regina Caeli from the balcony of St. Peter's Basilica.</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Top US officials emerge from China trade talks touting ‘substantial progress’ and ‘deal’</t>
+          <t>Putin must agree ceasefire before holding ‘direct’ talks with Ukraine, Kyiv’s allies say</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -926,29 +926,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/2025/05/11/politics/top-us-officials-emerge-from-china-trade-talks-touting-substantial-progress-and-agreement</t>
+          <t>https://www.cnn.com/2025/05/10/europe/putin-russia-ukraine-direct-talks-intl-hnk</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Top US officials involved in high-level trade negotiations with China emerged from two days of talks touting “substantial progress” and appearing to confirm that a deal between the two countries had been reached, which could have massive implications for the global economy.</t>
+          <t>Ukraine’s allies have rejected Vladimir Putin’s offer to hold direct talks with Ukrainian officials, saying the Russian president must first accept the US-backed ceasefire proposal.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Politics</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>“I’m happy to report that we’ve made substantial progress between the United States and China in the very important trade talks,” Treasury Secretary Scott Bessent said in a brief statement Sunday in Geneva, Switzerland, where the talks were held, calling the negotiations “productive.”US Trade Representative Jamieson Greer indicated that an agreement had been reached Sunday, after President Donald Trump imposed sweeping 145% tariffs on most Chinese goods last month. CNN —Top US officials involved in high-level trade negotiations with China emerged from two days of talks touting “substantial progress” and appearing to confirm that a deal between the two countries had been reached, which could have massive implications for the global economy. Bessent had suggested earlier this week that his goal was de-escalation of tensions as the US and China have been at a virtual stalemate since Trump imposed his tariff policy.</t>
+          <t>Later Sunday, the White House said Secretary of State Marco Rubio will visit Turkey from Wednesday to Friday, to attend an informal meeting of NATO foreign ministers and discuss “ending the Russia-Ukraine war,” meaning he will be in the country on the day of Putin’s proposed peace talks. Around the same time as Putin’s late-night speech, a three-day pause in fighting ordered by Russia’s leader came to an end, with Ukraine reporting more than 100 drone attacks overnight. For months, while Russia pounded Ukrainian cities with airstrikes and its offensive ground through the east of the country, Ukraine and its allies have tried to convince the Trump administration that Putin acts in bad faith, and have said Russia’s agreeing to a ceasefire can function as a test of whether it is serious about achieving the peace the US president has long demanded.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Shedeur Sanders aiming to ‘prove himself right’ instead of other ‘people wrong’ as he begins NFL career</t>
+          <t>These pregnant moms eye Supreme Court’s birthright citizenship arguments with fear</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -958,12 +958,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/2025/05/11/sport/shedeur-sanders-rookies-nfl-practice-spt</t>
+          <t>https://www.cnn.com/2025/05/11/politics/pregnant-mothers-supreme-courts-birthright-citizenship</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Cleveland Browns quarterback Shedeur Sanders said his “job here isn’t to prove people wrong” but to “prove myself right” as he spoke to the media for the first time since his dramatic slide and fifth round selection during the NFL Draft.</t>
+          <t>Mónica got pregnant last year around the same time President Donald Trump was elected to a second term. And that is when her race against the calendar began.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -973,39 +973,39 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>CNN —Cleveland Browns quarterback Shedeur Sanders said his “job here isn’t to prove people wrong” but to “prove myself right” as he spoke to the media for the first time since his dramatic slide and fifth round selection during the NFL Draft. Sanders is the son of Colorado Buffaloes head coach and Pro Football Hall of Famer Deion Sanders. Nick Cammett/Getty ImagesThe top two picks in the 2025 NFL Draft have also been refining their skills in their rookie minicamps.</t>
+          <t>Those arguments will not be before the Supreme Court this week, but the absence of a question on the merits raises a thorny practical question for the justices: How much should they take the broader constitutional issues into account if they decide to allow Trump to enforce a policy – even temporarily – that flies in the face of a long-standing recognition that a person born in the United States, regardless of their parents’ immigration status, is entitled to citizenship? Allowing the administration to temporarily enforce the order Trump signed on his first day of his second term could set up a dynamic in which a baby born in New Jersey would be able to access a passport or obtain a Social Security number, but a child born into the same circumstances across the Delaware River in Pennsylvania could not. In a landmark 1898 decision, US v. Wong Kim Ark, the Supreme Court affirmed the idea that people born in the United States – in that case, the son of Chinese immigrants – were entitled to US citizenship, with a few narrow exceptions.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A unique variety of garlic is in danger of extinction. One woman is trying to keep it alive</t>
+          <t>Rising waters and overtourism are killing Venice. Now the fight is on to save its soul</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>May 11, 2025</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/2025/05/11/travel/sopa-de-ajo-garlic-spain-cec</t>
+          <t>https://www.cnn.com/travel/battle-for-the-soul-of-venice</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Miriam Hernández, head chef at the restaurant La Casa del Pregonero, is reviving a unique variety of garlic known as ajo fino. In an episode of “Eva Longoria: Searching For Spain,” she showcases its distinct flavor and its place in Spain’s culinary history.</t>
+          <t>Venice isn’t just dealing with too many visitors. It also has major issues from depopulation, and rising sea levels. But some locals won’t stop trying to change things for the better as they battle to save Venice from going under.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Business</t>
+          <t>Politics</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Makes 4 servingsIngredients3 heads of garlic7 ounces | 200 grams of ham, finely diced7 ounces | 200 grams of bacon, finely diced2 stale baguettes, cut into small cubes2 tablespoons of paprikaSalt and pepperWaterA drizzle of extra virgin olive oilInstructions Editor’s Note: Watch CNN Original Series “Eva Longoria: Searching for Spain,” following the award-winning actress on a gastronomic pilgrimage across the rich tapestry of Spanish cuisine. But Chinchón, a quiet, Spanish town about 40 minutes south of Madrid, is home to a special variety called ajo fino — one that, until recently, was at risk of disappearing.</t>
+          <t>“We have nothing against private property, but if you rent 20 houses only to tourists, then you become a problem for your community,” says Dal Carlo, who is one of the tens of thousands of Venetians who have left the city for the mainland, a 10-minute train ride (plus ferry ride to the city center) away. But while the city authorities’ actions — like the 5 euro (roughly $5) daytripper fee trialed in 2024 and set to be repeated in 2025, and the Smart Control Room, which monitors the movements of visitors to the city — have met a mixed response, plenty of other Venetians are taking their own steps to preserve life in the city as they know it. Editor’s Note: A new episode of “The Whole Story: “Saving Venice,” a city threatened by rising sea levels and the millions of tourists desperate to visit while they still can, airs Sunday, May 11th at 8pm ET/PT on CNN.</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Tariffs could take the bloom off Mother’s Day flowers</t>
+          <t>What is habeas corpus, the legal procedure Trump is considering suspending?</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/2025/05/10/business/mothers-day-flowers-tariffs</t>
+          <t>https://www.cnn.com/2025/05/10/politics/habeas-corpus-explained</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mother’s Day is a busy season for florists like Allison Krivachek of Hydrangea Bloom in Iowa, but this year, rising prices due to Donald Trump tariffs are forcing her to raise costs and see fewer orders.</t>
+          <t>The future of habeas corpus has been pushed into the spotlight as President Donald Trump has been involved in discussions inside his administration over potentially taking the extreme step of suspending the procedure.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1069,29 +1069,29 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>America imported approximately $2.26 billion worth of fresh-cut flowers in 2024, with Colombia accounting for 60% of the market and Ecuador following with 25%, according to US Census Bureau data. Eighty percent of all cut flowers sold in the United States are imported from Colombia, Canada or Ecuador, according to the US Department of Agriculture. Debra Prinzing, founder of the Slow Flowers Society and a leading advocate for American-grown flowers, said the US floral industry was built to rely on imports.</t>
+          <t>The Supreme Court issued a murky, unsigned order on April 7 allowing Trump to use the centuries-old Alien Enemies Act to speed up deportations for now while at the same time, the court said migrants subject to deportation under the act were entitled to notice and an opportunity to challenge their removal through federal habeas corpus petitions, marking a partial win for migrants. The other three times include “in eleven South Carolina counties overrun by the Ku Klux Klan during Reconstruction; in two provinces of the Philippines during a 1905 insurrection; and in Hawaii after the bombing of Pearl Harbor,” according to the National Constitution Center. But the Constitution allows habeas corpus to be suspended only when “in Cases of Rebellion or Invasion the public Safety may require it.”“The Constitution makes clear that suspension of habeas corpus is to be reserved for actual rebellion or invasion posing the most dire threats to public safety.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Russia’s European neighbors are lifting bans on landmines. Campaigners are horrified</t>
+          <t>From a Kennedy Center makeover to crypto sweepstakes: How Trump is rewiring Washington access</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>May 11, 2025</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/2025/05/11/europe/europe-countries-landmine-ban-russia-intl</t>
+          <t>https://www.cnn.com/2025/05/10/politics/trump-washington-crypto-access</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>They are considered one of the world’s most dangerous, and indiscriminate, weapons. Yet five European countries have turned their backs on an international treaty on the use of landmines, citing the growing threat from Moscow.</t>
+          <t>There are more ways than ever to rub elbows with President Donald Trump and his inner circle — especially for those willing to pay.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1101,29 +1101,29 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Keir Giles, a senior consulting fellow of the Russia and Eurasia program at the thinktank Chatham House and author of the book “Who will Defend Europe?,” believes that if and when Russia’s grinding conflict in Ukraine does come to an end by whatever means, Moscow will be readying itself for its next target. Now working for disability charity Humanity &amp; Inclusion, she described the five countries’ decision to pull out of the treaty as “absolute nonsense” and “the most horrible thing that could happen in the life of a treaty.”Canada's former foreign minister Lloyd Axworthy signs the treaty to ban the use of anti-personnel landmines. “The large-scale contamination of land by explosive ordnance has created an ‘invisible threat’ in people’s minds,” Humanity &amp; Inclusion, an international charity helping those affected by poverty, conflict, and disaster, warned in a February report on the use of landmines in Ukraine.</t>
+          <t>Their clients have enjoyed rarefied access to the president: the CEO of Charter Communications, represented by Miller, and NFL Commissioner Roger Goodell, a Ballard client, each appeared alongside Trump during Oval Office eventsAmong the dozens of entities now paying for their services are those in sectors roiled by Trump’s return, including elite colleges like Harvard, Cornell and Northwestern; the Public Broadcasting Service; prestigious law firms Kirkland &amp; Ellis and Simpson Thacher &amp; Bartlett; and businesses affected by tariffs like Mitsubishi. The company’s CEO, Javier Selgas, called the $20 million purchase of Trump coin “an effective way to advocate for fair, balanced, and free trade between Mexico and the US.”Corporate executives are also flocking to the American Growth Partnership, a new pro-Trump business group that is promising unique insight into White House policies and off-the-record discussions with the president’s appointees and advisers. Ballard Partners pulled in more than $13.9 million in the first quarter of 2025, ranking fourth among all lobbying firms, according to Senate disclosures analyzed by the influence tracking organization OpenSecrets, far outpacing its 2024 revenue.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Jared Kushner quietly advising Trump administration ahead of Middle East trip</t>
+          <t>Trump made historic gains with minority voters in 2024. They are already pulling back in 2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>May 9, 2025</t>
+          <t>May 11, 2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/2025/05/09/politics/jared-kushner-trump-middle-east-trip</t>
+          <t>https://www.cnn.com/2025/05/11/politics/gop-voter-coalition-2024-trump</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>The president’s son-in-law is involved in discussions with Arab nations, including Saudi Arabia, about signing agreements that would normalize diplomatic relations with Israel, sources said.</t>
+          <t>Several of the key voter groups that provided President Donald Trump’s most important electoral gains in the 2024 election are recoiling from him as his presidency moves past the 100-day mark. But it remains unclear how much Democrats can benefit from these growing doubts.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1133,29 +1133,29 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>The president’s son-in-law, who served as a chief Middle East negotiator in Trump’s first term and built deep relationships with leaders in the region, has been informally advising administration officials on negotiations with Arab leaders, multiple Trump administration officials and people close to Kushner tell CNN. The president’s Middle East envoy Steve Witkoff — who has taken on a far more expansive portfolio that also includes serving as the point person on negotiations with Russia and Iran — told an audience at the Israeli embassy in Washington this week that he expected an expansion of the Abraham Accords soon. Nir Elias/Pool/AFP/Getty ImagesPeople involved in the discussions said the Trump administration is under no illusion that they will leave the Middle East having struck a deal with Riyadh.</t>
+          <t>“This election has made this problem manifest in the starkest possible terms, as the Democratic coalition shattered into pieces.”Republican pollster Patrick Ruffini, author of “Party of the People,” a book that perceptively analyzes the GOP’s growing strength among working-class minorities, summarized the results even more succinctly: “No word for it but … realignment,” he wrote on social media few weeks after the vote. Both the exit polls conducted by Edison Research for a consortium of media organizations including CNN and the AP VoteCast survey conducted by NORC at the University of Chicago found that Trump’s vote among White people was virtually identical from 2020 to 2024 and improved just modestly among voters older than 30. Nearly 3 in 4 of them in the Washington Post survey said Trump does not respect the rule of law, and just 1 in 6 in the New York Times/Siena poll agreed with his assertion that he should be allowed to send US citizens to a prison in El Salvador.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Angel City’s Savy King ‘responsive’ after collapsing during NWSL game</t>
+          <t>Jared Kushner quietly advising Trump administration ahead of Middle East trip</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>May 10, 2025</t>
+          <t>May 9, 2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/2025/05/10/sport/nwsl-savy-king-collapse-spt</t>
+          <t>https://www.cnn.com/2025/05/09/politics/jared-kushner-trump-middle-east-trip</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Angel City defender Savy King, who was hospitalized after collapsing during Friday night’s National Women’s Soccer League match against the Utah Royals, is “responsive,” her club said in a statement.</t>
+          <t>The president’s son-in-law is involved in discussions with Arab nations, including Saudi Arabia, about signing agreements that would normalize diplomatic relations with Israel, sources said.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1165,14 +1165,14 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Luiza Moraes/NWSL/Getty ImagesKing – who was selected by Bay FC with the second overall pick in the 2024 NWSL draft – has started all eight games for Angel City this season, having joined the club in February. CNN —Angel City defender Savy King, who was hospitalized after collapsing during Friday night’s National Women’s Soccer League (NWSL) match against the Utah Royals, is “responsive,” her club said in a statement. After the game – which Angel City won 2-0 with goals from Christen Press and Alyssa Thompson – both sets of players joined each other in a circle to offer a prayer for King.</t>
+          <t>The president’s son-in-law, who served as a chief Middle East negotiator in Trump’s first term and built deep relationships with leaders in the region, has been informally advising administration officials on negotiations with Arab leaders, multiple Trump administration officials and people close to Kushner tell CNN. The president’s Middle East envoy Steve Witkoff — who has taken on a far more expansive portfolio that also includes serving as the point person on negotiations with Russia and Iran — told an audience at the Israeli embassy in Washington this week that he expected an expansion of the Abraham Accords soon. Nir Elias/Pool/AFP/Getty ImagesPeople involved in the discussions said the Trump administration is under no illusion that they will leave the Middle East having struck a deal with Riyadh.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Cecily Strong and Colin Jost make surprise cameos in ‘SNL’ cold open</t>
+          <t>Trump’s presidency: US officials tout progress in China trade talks</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1182,12 +1182,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/2025/05/11/entertainment/cecily-strong-colin-jost-snl-opening</t>
+          <t>https://www.cnn.com/politics/live-news/trump-presidency-news-05-11-25</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Things started off warmly enough on this weekend’s episode of “Saturday Night Live” but then took a turn.</t>
+          <t>President Donald Trump continues to forge ahead with his domestic and foreign policy agenda. Follow here for the latest live news updates.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1197,14 +1197,14 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>He continued to discuss the pope and the Catholic Church, saying, “We love Catholic – it’s one of the stronger Christian organizations, along with Salvation Army and, I wanna say, Chick-fil-A.”Soon, he was joined on stage by “SNL” alum Cecily Strong as Jeanine Pirro, who was appointed interim US attorney for Washington, DC this week. Cast members Kenan Thompson, Marcello Hernandez and Bowen Yang appeared in the cold open for a heartfelt tribute to their moms ahead of Mother’s Day, but the moment was cut short when James Austin Johnson as Donald Trump showed up and sent them all packing. He began his bit by talking about the newly elected Pope Leo XIV and joking about the 69-year-old’s hometown saying, “We have an American pope – Chicago-style.</t>
+          <t>Getty ImagesA fourth round of talks between the US and Iran on Tehran’s nuclear program has begun in Oman today, according to Iranian state media, with the two sides aiming to overcome divisions that could dash the tentative negotiations. President Donald Trump, who is headed to the Middle East next week, has threatened that the US would resort to military strikes against Iranian nuclear sites, with Israel’s help, should Tehran fail to reach a deal with its interlocutors. US Middle East Envoy Steve Witkoff and Iranian Foreign Minister Abbas Araghchi.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Trump wants to upend American holidays</t>
+          <t>India-Pakistan ceasefire raises hopes that the worst fighting in decades is over. Here’s what to know</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1214,12 +1214,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/2025/05/11/politics/victory-day-army-military-parade-trump</t>
+          <t>https://www.cnn.com/2025/05/10/asia/india-pakistan-ceasefire-explainer-latam-intl</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>It may be no surprise that President Donald Trump, who did not serve in the active-duty military, would rather celebrate victory than veterans.</t>
+          <t>A ceasefire agreed between India and Pakistan appears to be holding, with both sides stressing their commitment to the surprise truce which halted the worst fighting in decades between the nuclear-armed neighbors.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1229,14 +1229,14 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>It’s quite the evolution for a holiday that used to commemorate armistice when it was first observed by Woodrow Wilson in 1919, a year after the truce that ended the war:“To us in America, the reflections of Armistice Day will be filled with solemn pride in the heroism of those who died in the country’s service and with gratitude for the victory, both because of the thing from which it has freed us and because of the opportunity it has given America to show her sympathy with peace and justice in the councils of the nations.” A few years later, in 1923, just before his death, a frail Wilson would chastise Americans in an Armistice Day radio address for turning toward isolationism and not joining the League of Nations, a sentiment still relevant today as Trump disrupts the post-World War II economic and diplomatic order. Nobody at the White House appears to have put together that the day Trump wants to celebrate Victory in World War II Day, May 8, when Germany surrendered in Europe, was not the end of World War II.</t>
+          <t>Video Ad Feedback CNN correspondents explain what we know about the India and Pakistan ceasefire 05:52 - Source: CNN CNN correspondents explain what we know about the India and Pakistan ceasefire 05:52India’s Ministry of Information said the agreement was worked out “directly between the two countries,” downplaying US involvement and contradicting Trump’s claim. “India has never accepted mediation in any dispute, be it India-Pakistan or India-China, or any other,” said Dr. Aparna Pande, research fellow for India and South Asia at the Hudson Institute, a think-tank in Washington, DC. Trump administration officials told CNN that, after receiving alarming intelligence on Friday about the extent to which the conflict could escalate, the State Department felt it had no choice but to play a greater role in talks between the two sidesWill the ceasefire hold?While initially appearing fragile, both sides appear to be upholding the terms of the ceasefire into Sunday.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>The latest on Donald Trump’s presidency</t>
+          <t>Cecily Strong and Colin Jost make surprise cameos in ‘SNL’ cold open</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1246,12 +1246,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/politics/live-news/trump-presidency-news-05-11-25</t>
+          <t>https://www.cnn.com/2025/05/11/entertainment/cecily-strong-colin-jost-snl-opening</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>President Donald Trump continues to forge ahead with his domestic and foreign policy agenda. Follow here for the latest live news updates.</t>
+          <t>Things started off warmly enough on this weekend’s episode of “Saturday Night Live” but then took a turn.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1261,29 +1261,29 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>The Trump administration is set to accept a luxury plane from the Qatari royal family, which will be retrofitted and used as Air Force One during his second term, two people familiar with the agreement told CNN. Trump and aides toured the plane earlier this year in Palm Beach, and it is expected to be in use within two years, one person told CNN. A Qatari official said the plane is technically being gifted from the Qatari Ministry of Defense to the Pentagon, describing it more as a government-to-government transaction instead of a personal one.</t>
+          <t>He continued to discuss the pope and the Catholic Church, saying, “We love Catholic – it’s one of the stronger Christian organizations, along with Salvation Army and, I wanna say, Chick-fil-A.”Soon, he was joined on stage by “SNL” alum Cecily Strong as Jeanine Pirro, who was appointed interim US attorney for Washington, DC this week. Cast members Kenan Thompson, Marcello Hernandez and Bowen Yang appeared in the cold open for a heartfelt tribute to their moms ahead of Mother’s Day, but the moment was cut short when James Austin Johnson as Donald Trump showed up and sent them all packing. He began his bit by talking about the newly elected Pope Leo XIV and joking about the 69-year-old’s hometown saying, “We have an American pope – Chicago-style.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Susan Collins takes steps toward 2026 run as big-name Democrats weigh potential challenge</t>
+          <t>Sean ‘Diddy’ Combs timeline: The key events and allegations against the hip-hop mogul now on trial</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>May 11, 2025</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/2025/05/11/politics/maine-senate-collins-democrats-2026</t>
+          <t>https://www.cnn.com/2025/05/10/entertainment/sean-diddy-combs-timeline-trial</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Democrats have one big hope as they scramble to find a top-tier recruit against GOP Sen. Susan Collins in Maine: Maybe she won’t run at all.</t>
+          <t>The criminal case against Sean “Diddy” Combs was sparked after a startling 2023 civil lawsuit from his former girlfriend in which she alleged years of abuse and violence.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1293,14 +1293,14 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>But she has cast key votes to help advance her party’s agenda over the years and some of Trump’s most controversial picks, whether it was to confirm Brett Kavanaugh to the Supreme Court or Robert F. Kennedy Jr. to lead the Department of Health and Human Services. Collins voted to convict Trump in his second impeachment trial after the January 6, 2021, US Capitol attack and has long refused to say whom she voted for in the 2020 election — while writing in Nikki Haley in the 2024 election and publicly announcing she wouldn’t support Trump in 2016. Schumer has personally spoken about the race with Mills, the 77-year-old governor who recently clashed with Trump over issues including transgender athletes this year, according to two sources with knowledge of the conversations.</t>
+          <t>Combs’ attorney, Brafman, said the settlement was “in no way an admission of wrongdoing.”November 23, 2023: Two more women, Joi Dickerson-Neal and Liza Gardner, accused Combs of sexual assault in lawsuits filed in New York Supreme Court on the eve of the expiration of the state’s Adult Survivors Act. From mogul to defendantSeptember 15, 2023: Diddy released “The Love Album: Off the Grid,” his fifth studio album, featuring appearances by a who’s who of the music industry, including Justin Bieber, the Weeknd and Mary J. Blige. Ventura filed the suit days ahead of the November 23 expiration of the New York’s Adult Survivor Act, which created a one-year window for adult survivors of sexual abuse to sue their abusers, regardless of the statute of limitations.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Trump made historic gains with minority voters in 2024. They are already pulling back in 2025</t>
+          <t>Susan Collins takes steps toward 2026 run as big-name Democrats weigh potential challenge</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1310,12 +1310,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/2025/05/11/politics/gop-voter-coalition-2024-trump</t>
+          <t>https://www.cnn.com/2025/05/11/politics/maine-senate-collins-democrats-2026</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Several of the key voter groups that provided President Donald Trump’s most important electoral gains in the 2024 election are recoiling from him as his presidency moves past the 100-day mark. But it remains unclear how much Democrats can benefit from these growing doubts.</t>
+          <t>Democrats have one big hope as they scramble to find a top-tier recruit against GOP Sen. Susan Collins in Maine: Maybe she won’t run at all.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1325,29 +1325,29 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>“This election has made this problem manifest in the starkest possible terms, as the Democratic coalition shattered into pieces.”Republican pollster Patrick Ruffini, author of “Party of the People,” a book that perceptively analyzes the GOP’s growing strength among working-class minorities, summarized the results even more succinctly: “No word for it but … realignment,” he wrote on social media few weeks after the vote. Both the exit polls conducted by Edison Research for a consortium of media organizations including CNN and the AP VoteCast survey conducted by NORC at the University of Chicago found that Trump’s vote among White people was virtually identical from 2020 to 2024 and improved just modestly among voters older than 30. Nearly 3 in 4 of them in the Washington Post survey said Trump does not respect the rule of law, and just 1 in 6 in the New York Times/Siena poll agreed with his assertion that he should be allowed to send US citizens to a prison in El Salvador.</t>
+          <t>But she has cast key votes to help advance her party’s agenda over the years and some of Trump’s most controversial picks, whether it was to confirm Brett Kavanaugh to the Supreme Court or Robert F. Kennedy Jr. to lead the Department of Health and Human Services. Collins voted to convict Trump in his second impeachment trial after the January 6, 2021, US Capitol attack and has long refused to say whom she voted for in the 2020 election — while writing in Nikki Haley in the 2024 election and publicly announcing she wouldn’t support Trump in 2016. Schumer has personally spoken about the race with Mills, the 77-year-old governor who recently clashed with Trump over issues including transgender athletes this year, according to two sources with knowledge of the conversations.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Cassie Ventura’s civil suit against Sean ‘Diddy’ Combs preceded his criminal case. Here’s how her life has changed since</t>
+          <t>Angel City’s Savy King ‘responsive’ after collapsing during NWSL game</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>May 11, 2025</t>
+          <t>May 10, 2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.cnn.com/2025/05/11/entertainment/cassie-ventura-sean-diddy-combs</t>
+          <t>https://www.cnn.com/2025/05/10/sport/nwsl-savy-king-collapse-spt</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cassie Ventura would not have been blamed had she decided to disappear from public life and social media.</t>
+          <t>Angel City defender Savy King, who was hospitalized after collapsing during Friday night’s National Women’s Soccer League match against the Utah Royals, is “responsive,” her club said in a statement.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>For her supporters, the footage is validation for Ventura, who had been painted by some Combs fans as a disgruntled ex.Ventura has said nothing publicly about either her suit or the fallout, beyond thanking her supporters at the time the video was first published by CNN last year. Ventura released other singles, including “Official Girl” featuring rapper Lil Wayne in 2008, and “Must Be Love,” featuring Combs performing under one of his professional monikers, Puff Daddy, in 2009. Angela Weiss/AFP/Getty ImagesIn her 2023 suit, Ventura said she still suffers from “immense emotional distress” and at one point she checked into an inpatient rehabilitation center after having suicidal thoughts she linked to abuse.</t>
+          <t>Luiza Moraes/NWSL/Getty ImagesKing – who was selected by Bay FC with the second overall pick in the 2024 NWSL draft – has started all eight games for Angel City this season, having joined the club in February. CNN —Angel City defender Savy King, who was hospitalized after collapsing during Friday night’s National Women’s Soccer League (NWSL) match against the Utah Royals, is “responsive,” her club said in a statement. After the game – which Angel City won 2-0 with goals from Christen Press and Alyssa Thompson – both sets of players joined each other in a circle to offer a prayer for King.</t>
         </is>
       </c>
     </row>
